--- a/data/trans_orig/P6716-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4694</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1826</v>
+        <v>964</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12297</v>
+        <v>12198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02564967294079551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009979566161288155</v>
+        <v>0.005269576314133943</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06718780991289452</v>
+        <v>0.06664842051110119</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -763,19 +763,19 @@
         <v>4033</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1042</v>
+        <v>1002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9255</v>
+        <v>9405</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02940778850774113</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007597056052338576</v>
+        <v>0.007310093239417878</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06748988756710353</v>
+        <v>0.06858344845305095</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -784,19 +784,19 @@
         <v>8727</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3887</v>
+        <v>3964</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16593</v>
+        <v>17504</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02725946043884386</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01214231944815514</v>
+        <v>0.01238150534396555</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05182747163102108</v>
+        <v>0.05467301667044675</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>8471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4120</v>
+        <v>4055</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16237</v>
+        <v>15091</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04628358396131972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02250969928360709</v>
+        <v>0.02215661665900858</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0887192685481228</v>
+        <v>0.08245392397904172</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7807</v>
+        <v>7723</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01620778043668159</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05692926871114151</v>
+        <v>0.05631750361066905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -855,19 +855,19 @@
         <v>10693</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5171</v>
+        <v>5265</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18554</v>
+        <v>17973</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03340062396574126</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0161519254752351</v>
+        <v>0.01644453351713431</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05795259529406389</v>
+        <v>0.05613915080830691</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>33861</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23173</v>
+        <v>23507</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46276</v>
+        <v>45591</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.185012789263854</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1266167779692755</v>
+        <v>0.1284421813292224</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2528501196919338</v>
+        <v>0.2491087247310713</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -905,19 +905,19 @@
         <v>38435</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28568</v>
+        <v>28449</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50601</v>
+        <v>49259</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2802632502544756</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2083117604305585</v>
+        <v>0.2074438320326462</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3689777331544446</v>
+        <v>0.3591887043668515</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>65</v>
@@ -926,19 +926,19 @@
         <v>72296</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56437</v>
+        <v>57478</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>88366</v>
+        <v>87775</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2258132911522686</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1762787000625695</v>
+        <v>0.1795288320626828</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2760080982512224</v>
+        <v>0.2741619526811907</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>44592</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33710</v>
+        <v>33813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57061</v>
+        <v>57519</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2436455854024904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1841872464538375</v>
+        <v>0.1847544559317731</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3117804009477306</v>
+        <v>0.3142814593477522</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -976,19 +976,19 @@
         <v>22686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15229</v>
+        <v>14896</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32372</v>
+        <v>32397</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1654214232985929</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1110455389873058</v>
+        <v>0.1086219491931668</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.236051501151744</v>
+        <v>0.2362365301388308</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -997,19 +997,19 @@
         <v>67277</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52655</v>
+        <v>54177</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82809</v>
+        <v>82192</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.210138292729608</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1644641260635556</v>
+        <v>0.1692182487085779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2586503915317955</v>
+        <v>0.2567241134036533</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>91401</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>78479</v>
+        <v>78385</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>104871</v>
+        <v>104450</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4994083684315404</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4288063823804091</v>
+        <v>0.4282891094441072</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5730093856349152</v>
+        <v>0.5707100638743807</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>64</v>
@@ -1047,19 +1047,19 @@
         <v>69763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58152</v>
+        <v>58604</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82149</v>
+        <v>82003</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5086997575025087</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4240347232579686</v>
+        <v>0.4273308695223288</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5990169385987051</v>
+        <v>0.5979562718174619</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>154</v>
@@ -1068,19 +1068,19 @@
         <v>161164</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>142319</v>
+        <v>144651</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>180170</v>
+        <v>179666</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5033883317135381</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4445262782401926</v>
+        <v>0.4518120227260169</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.562753571570762</v>
+        <v>0.5611800398439774</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>23599</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14959</v>
+        <v>15124</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34347</v>
+        <v>34753</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02583153623953372</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01637468518603598</v>
+        <v>0.01655516296104305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03759723746137867</v>
+        <v>0.03804184419545315</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1193,19 +1193,19 @@
         <v>19787</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12654</v>
+        <v>12270</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29760</v>
+        <v>29711</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0346822927580886</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02217956959891218</v>
+        <v>0.02150686440749768</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05216386633609944</v>
+        <v>0.05207771769733785</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1214,19 +1214,19 @@
         <v>43385</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31776</v>
+        <v>30983</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56262</v>
+        <v>58898</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02923398036314916</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02141177639146752</v>
+        <v>0.02087687638424638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03791090413516608</v>
+        <v>0.03968658523170383</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>37624</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27350</v>
+        <v>27721</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51277</v>
+        <v>52064</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04118449854449185</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02993817813404135</v>
+        <v>0.0303443601046304</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05612956703616111</v>
+        <v>0.05699041327566793</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -1264,19 +1264,19 @@
         <v>36573</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25359</v>
+        <v>24494</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49954</v>
+        <v>49967</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06410532417719315</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04445027982186768</v>
+        <v>0.04293299638678946</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08756059534940304</v>
+        <v>0.08758305711686991</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>69</v>
@@ -1285,19 +1285,19 @@
         <v>74197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>56875</v>
+        <v>59178</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>90683</v>
+        <v>94584</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04999581634754131</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03832406515302494</v>
+        <v>0.03987557383511997</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06110417582195082</v>
+        <v>0.06373313225618042</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>176666</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>153221</v>
+        <v>152999</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>201277</v>
+        <v>201146</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1933834322030301</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1677199744328599</v>
+        <v>0.1674762625783717</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.220322904656647</v>
+        <v>0.2201796429112354</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>124</v>
@@ -1335,19 +1335,19 @@
         <v>132970</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114908</v>
+        <v>113942</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>156931</v>
+        <v>154011</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2330725934643697</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2014130581906964</v>
+        <v>0.1997195367356882</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2750711316039862</v>
+        <v>0.269953455816094</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>295</v>
@@ -1356,19 +1356,19 @@
         <v>309637</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>279929</v>
+        <v>275143</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>343218</v>
+        <v>341040</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2086409023663738</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1886227223427736</v>
+        <v>0.1853981192441567</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2312685213600467</v>
+        <v>0.229801404525847</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>236749</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>209137</v>
+        <v>209988</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>262803</v>
+        <v>266102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2591512603316962</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2289263463354366</v>
+        <v>0.2298581061533789</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2876711079554692</v>
+        <v>0.2912822548381894</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -1406,19 +1406,19 @@
         <v>146791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>125798</v>
+        <v>127908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166412</v>
+        <v>170124</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2572972000590243</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2205012250297146</v>
+        <v>0.2241986948730204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2916891348810232</v>
+        <v>0.2981959182658103</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>368</v>
@@ -1427,19 +1427,19 @@
         <v>383540</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>350062</v>
+        <v>350440</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>416859</v>
+        <v>418799</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2584385148769595</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.23588054729855</v>
+        <v>0.2361348464491259</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2808899132383319</v>
+        <v>0.2821969625167243</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>438917</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>409931</v>
+        <v>408451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>472979</v>
+        <v>469180</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4804492726812481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4487201461870278</v>
+        <v>0.4471004191640408</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5177345352627514</v>
+        <v>0.5135761108464703</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>216</v>
@@ -1477,19 +1477,19 @@
         <v>234390</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>211380</v>
+        <v>210062</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>260231</v>
+        <v>259283</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4108425895413242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3705108154247012</v>
+        <v>0.3681994474224374</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4561375629217812</v>
+        <v>0.4544741909719836</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>624</v>
@@ -1498,19 +1498,19 @@
         <v>673307</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>639639</v>
+        <v>632268</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>715419</v>
+        <v>712356</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4536907860459762</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4310043634446909</v>
+        <v>0.4260375622128733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4820667268359157</v>
+        <v>0.4800030824758056</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>10911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5496</v>
+        <v>5634</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20553</v>
+        <v>18977</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03449890995785213</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01737669256808259</v>
+        <v>0.01781555214500807</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06498799158076397</v>
+        <v>0.06000525721094317</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1623,19 +1623,19 @@
         <v>4678</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1801</v>
+        <v>1766</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10107</v>
+        <v>9811</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01991464890926296</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007666750176121561</v>
+        <v>0.007516096742918812</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04302937949125878</v>
+        <v>0.04176662535570957</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1644,19 +1644,19 @@
         <v>15588</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9309</v>
+        <v>9420</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25024</v>
+        <v>25611</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02828323094629837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01688930080387299</v>
+        <v>0.01709117053436559</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04540324862328224</v>
+        <v>0.04646760535148569</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>13189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6036</v>
+        <v>6011</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24086</v>
+        <v>24100</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04170497348682512</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01908603323936678</v>
+        <v>0.01900560024078984</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07616085162392441</v>
+        <v>0.07620251051493322</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1694,19 +1694,19 @@
         <v>3871</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12321</v>
+        <v>11311</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01647887179572478</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004122578735364754</v>
+        <v>0.00414968571586085</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0524537083787698</v>
+        <v>0.04815407264509058</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1715,19 +1715,19 @@
         <v>17060</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8956</v>
+        <v>9293</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30456</v>
+        <v>29549</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03095383907540006</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01624994655878136</v>
+        <v>0.01686047192633696</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0552592484346086</v>
+        <v>0.05361330215823401</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>43475</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32631</v>
+        <v>32049</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59214</v>
+        <v>59052</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1374665498224206</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1031795976802519</v>
+        <v>0.101337242310384</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1872338489183322</v>
+        <v>0.1867200165920872</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -1765,19 +1765,19 @@
         <v>31908</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21579</v>
+        <v>21049</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45537</v>
+        <v>44154</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1358363790018342</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09186413774400712</v>
+        <v>0.08960805662151505</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1938603743832623</v>
+        <v>0.1879712291373903</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>67</v>
@@ -1786,19 +1786,19 @@
         <v>75382</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>58686</v>
+        <v>59062</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>93454</v>
+        <v>95336</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.136771785890192</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1064791534499758</v>
+        <v>0.1071604235150747</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1695600787922422</v>
+        <v>0.1729750258161865</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>70122</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55277</v>
+        <v>54797</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86517</v>
+        <v>87616</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2217235804936048</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1747847421863735</v>
+        <v>0.173265977295812</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.27356487098285</v>
+        <v>0.277039330173367</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -1836,19 +1836,19 @@
         <v>53498</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40396</v>
+        <v>41372</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67306</v>
+        <v>69282</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2277513917405917</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1719722671969195</v>
+        <v>0.1761289819215702</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2865322357993819</v>
+        <v>0.2949449800700806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>113</v>
@@ -1857,19 +1857,19 @@
         <v>123620</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103860</v>
+        <v>105062</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146264</v>
+        <v>145329</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2242925786573567</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1884418248243971</v>
+        <v>0.190621243673318</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2653780270468706</v>
+        <v>0.2636809738162631</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>178561</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>159017</v>
+        <v>159243</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>196848</v>
+        <v>197578</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5646059862392974</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5028079894881272</v>
+        <v>0.503524827714899</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6224319598336652</v>
+        <v>0.6247372989596526</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>126</v>
@@ -1907,19 +1907,19 @@
         <v>140943</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>124800</v>
+        <v>124024</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156230</v>
+        <v>156715</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6000187085525863</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5312949833560866</v>
+        <v>0.5279933737270127</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6650989938040335</v>
+        <v>0.6671629703396804</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>288</v>
@@ -1928,19 +1928,19 @@
         <v>319503</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>294576</v>
+        <v>292581</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>345162</v>
+        <v>341841</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5796985654307528</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5344708218027604</v>
+        <v>0.5308508669832007</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6262536204287846</v>
+        <v>0.6202270046234886</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>39203</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28107</v>
+        <v>28579</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53398</v>
+        <v>54781</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02774813911573177</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01989418264604535</v>
+        <v>0.02022788587857062</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03779522624271066</v>
+        <v>0.03877368097086058</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -2053,19 +2053,19 @@
         <v>28497</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19861</v>
+        <v>20016</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42112</v>
+        <v>39971</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03023454069022393</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02107159233490255</v>
+        <v>0.02123624282600246</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04467912062109456</v>
+        <v>0.04240737673819753</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -2074,19 +2074,19 @@
         <v>67701</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52591</v>
+        <v>52077</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>85025</v>
+        <v>85005</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02874311767423285</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02232785884419255</v>
+        <v>0.02210999759940142</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03609827724054408</v>
+        <v>0.03608971627927306</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>59285</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>44760</v>
+        <v>44818</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>76245</v>
+        <v>77408</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04196154102923342</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03168135498419673</v>
+        <v>0.03172196891897103</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05396606954374187</v>
+        <v>0.05478954014696108</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>37</v>
@@ -2124,19 +2124,19 @@
         <v>42666</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>30200</v>
+        <v>31038</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>58212</v>
+        <v>57959</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04526706537410367</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03204053659164564</v>
+        <v>0.03293003806308678</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0617603440936004</v>
+        <v>0.06149217862489858</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>92</v>
@@ -2145,19 +2145,19 @@
         <v>101951</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>82680</v>
+        <v>83730</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>125154</v>
+        <v>124254</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04328430637876107</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.035102558890172</v>
+        <v>0.03554831472895142</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05313525823208026</v>
+        <v>0.05275315969518535</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>254002</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>225023</v>
+        <v>227988</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>285552</v>
+        <v>286591</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1797822987138726</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1592707650269116</v>
+        <v>0.1613697211634065</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2021135385449682</v>
+        <v>0.2028484181080597</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>186</v>
@@ -2195,19 +2195,19 @@
         <v>203313</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>178298</v>
+        <v>179079</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>227902</v>
+        <v>230954</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2157060521848093</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1891663777495884</v>
+        <v>0.1899952119026191</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2417936693236249</v>
+        <v>0.2450318952603813</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>427</v>
@@ -2216,19 +2216,19 @@
         <v>457315</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>418921</v>
+        <v>418868</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>497130</v>
+        <v>494727</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1941578383737368</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1778570338144352</v>
+        <v>0.1778346789122701</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2110616953098531</v>
+        <v>0.2100414617070637</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>351462</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>317121</v>
+        <v>322481</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>387587</v>
+        <v>385079</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2487645978519752</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2244576472394386</v>
+        <v>0.228251587788366</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2743338548774014</v>
+        <v>0.2725586991775862</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>213</v>
@@ -2266,19 +2266,19 @@
         <v>222975</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>198340</v>
+        <v>199148</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>250150</v>
+        <v>251868</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2365661310252741</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2104297790089661</v>
+        <v>0.2112874701561468</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2653978227342118</v>
+        <v>0.2672210712083589</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>546</v>
@@ -2287,19 +2287,19 @@
         <v>574437</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>532868</v>
+        <v>531859</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>620161</v>
+        <v>617369</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2438831607326984</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2262343912278468</v>
+        <v>0.2258063136764122</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2632957075077131</v>
+        <v>0.2621104659398962</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>708879</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>669513</v>
+        <v>666431</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>745671</v>
+        <v>748581</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5017434232891871</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4738806624532582</v>
+        <v>0.4716993117534691</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5277848715893404</v>
+        <v>0.5298450067934958</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>406</v>
@@ -2337,19 +2337,19 @@
         <v>445095</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>416241</v>
+        <v>410668</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>477883</v>
+        <v>474385</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.472226210725589</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4416128742060936</v>
+        <v>0.4357000395170494</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5070119093246058</v>
+        <v>0.5033009532739962</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1066</v>
@@ -2358,19 +2358,19 @@
         <v>1153974</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1104636</v>
+        <v>1103656</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1205503</v>
+        <v>1206626</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4899315768405709</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4689846976605007</v>
+        <v>0.4685685973845601</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5118085326910357</v>
+        <v>0.5122854762654037</v>
       </c>
     </row>
     <row r="27">
@@ -2701,19 +2701,19 @@
         <v>8841</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3459</v>
+        <v>4414</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16405</v>
+        <v>16564</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06257050501174839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02448002699021003</v>
+        <v>0.0312367419109866</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.116099681067055</v>
+        <v>0.1172257082348483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2722,19 +2722,19 @@
         <v>4212</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1158</v>
+        <v>1041</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10377</v>
+        <v>9766</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06092814855174859</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01675568933500057</v>
+        <v>0.01506273867128853</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1501089555493894</v>
+        <v>0.1412753271714487</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2743,19 +2743,19 @@
         <v>13053</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6707</v>
+        <v>7502</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21932</v>
+        <v>21682</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06203096759116956</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03187091722643001</v>
+        <v>0.03565242226691999</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1042272322690023</v>
+        <v>0.10303765390939</v>
       </c>
     </row>
     <row r="5">
@@ -2772,19 +2772,19 @@
         <v>13764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7928</v>
+        <v>7555</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22933</v>
+        <v>22379</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09741339852371457</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05611091371998118</v>
+        <v>0.05347115421667688</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1623005128057499</v>
+        <v>0.1583814940176587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -2793,19 +2793,19 @@
         <v>9133</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4440</v>
+        <v>4084</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15659</v>
+        <v>15677</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1321111477823564</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06423106237152704</v>
+        <v>0.05907888869331177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2265240843301745</v>
+        <v>0.226782933823002</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -2814,19 +2814,19 @@
         <v>22897</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14231</v>
+        <v>14828</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32630</v>
+        <v>34301</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1088121019056228</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06763012576435448</v>
+        <v>0.07046774222250209</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1550643656906226</v>
+        <v>0.1630071063069824</v>
       </c>
     </row>
     <row r="6">
@@ -2843,19 +2843,19 @@
         <v>38745</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28306</v>
+        <v>28065</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50731</v>
+        <v>50607</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2742053727386918</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2003237622164424</v>
+        <v>0.1986228577408058</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3590308769217812</v>
+        <v>0.3581568636145005</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -2864,19 +2864,19 @@
         <v>16415</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9509</v>
+        <v>10365</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23651</v>
+        <v>23832</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2374632160295849</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1375495168441816</v>
+        <v>0.1499446677544597</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3421338242052315</v>
+        <v>0.3447495919660324</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -2885,19 +2885,19 @@
         <v>55160</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43151</v>
+        <v>43051</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69397</v>
+        <v>68707</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2621350524762215</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.205064340654916</v>
+        <v>0.2045900811901343</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3297931913932902</v>
+        <v>0.3265112350228691</v>
       </c>
     </row>
     <row r="7">
@@ -2914,19 +2914,19 @@
         <v>33629</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23693</v>
+        <v>24542</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44111</v>
+        <v>44788</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2380023805867435</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.167680297976862</v>
+        <v>0.1736901638659203</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3121808229193917</v>
+        <v>0.3169752707637692</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2935,19 +2935,19 @@
         <v>22031</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15140</v>
+        <v>14171</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30982</v>
+        <v>29721</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3186997297127404</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2190105331339291</v>
+        <v>0.2050028645449672</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4481789476621611</v>
+        <v>0.4299352955984382</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -2956,19 +2956,19 @@
         <v>55661</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43968</v>
+        <v>43719</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69837</v>
+        <v>69113</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.264512605775613</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2089449108480716</v>
+        <v>0.2077614504990909</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3318832142658626</v>
+        <v>0.3284405870839153</v>
       </c>
     </row>
     <row r="8">
@@ -2985,19 +2985,19 @@
         <v>46319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35798</v>
+        <v>34887</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58384</v>
+        <v>57698</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3278083431391017</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2533471963506786</v>
+        <v>0.2468994884711955</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4131929137558089</v>
+        <v>0.4083365372778202</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -3006,19 +3006,19 @@
         <v>17337</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10216</v>
+        <v>11313</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24642</v>
+        <v>25334</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2507977579235698</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1477817858119969</v>
+        <v>0.1636499026679875</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3564667101851901</v>
+        <v>0.3664790482552043</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>59</v>
@@ -3027,19 +3027,19 @@
         <v>63656</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>49837</v>
+        <v>50703</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>77825</v>
+        <v>76707</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3025092722513731</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2368358841914772</v>
+        <v>0.2409527629003845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3698441650779397</v>
+        <v>0.3645285515141443</v>
       </c>
     </row>
     <row r="9">
@@ -3131,19 +3131,19 @@
         <v>35025</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23399</v>
+        <v>23327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49065</v>
+        <v>49403</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03793833779404587</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02534543384276984</v>
+        <v>0.02526716149395977</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05314707953751655</v>
+        <v>0.05351257810362805</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -3152,19 +3152,19 @@
         <v>33342</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24560</v>
+        <v>23437</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47773</v>
+        <v>46085</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0512520687395812</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03775316631074947</v>
+        <v>0.03602701094039961</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07343537310486969</v>
+        <v>0.07084008398461883</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -3173,19 +3173,19 @@
         <v>68366</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52976</v>
+        <v>53097</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85640</v>
+        <v>88204</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.043441873672763</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0336624527479355</v>
+        <v>0.03373924557062744</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05441794472567735</v>
+        <v>0.0560469323519504</v>
       </c>
     </row>
     <row r="11">
@@ -3202,19 +3202,19 @@
         <v>57640</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43564</v>
+        <v>44465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>73522</v>
+        <v>74247</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0624349247705932</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04718850227123867</v>
+        <v>0.04816361507721336</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07963838145665147</v>
+        <v>0.08042384766372646</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -3223,19 +3223,19 @@
         <v>44650</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33571</v>
+        <v>32634</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>60849</v>
+        <v>58845</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0686348147097704</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05160383358043887</v>
+        <v>0.05016354179172758</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09353553585131409</v>
+        <v>0.09045525216294503</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>95</v>
@@ -3244,19 +3244,19 @@
         <v>102290</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>84126</v>
+        <v>82537</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>126234</v>
+        <v>121583</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06499779139783277</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05345578458593664</v>
+        <v>0.0524459472192182</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0802124105061779</v>
+        <v>0.07725715321699321</v>
       </c>
     </row>
     <row r="12">
@@ -3273,19 +3273,19 @@
         <v>213894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>188787</v>
+        <v>189051</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>241552</v>
+        <v>243176</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2316874324045944</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2044921745607479</v>
+        <v>0.2047773321706211</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2616466664259367</v>
+        <v>0.2634047234642219</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>165</v>
@@ -3294,19 +3294,19 @@
         <v>171245</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>149240</v>
+        <v>149599</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>192464</v>
+        <v>197902</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2632344598025644</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2294085122255689</v>
+        <v>0.229960271454662</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2958509971473469</v>
+        <v>0.3042112013270605</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>363</v>
@@ -3315,19 +3315,19 @@
         <v>385140</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>350248</v>
+        <v>351411</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>419127</v>
+        <v>420536</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2447281193361433</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2225570726185561</v>
+        <v>0.2232958123618655</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2663247661542599</v>
+        <v>0.2672200321729751</v>
       </c>
     </row>
     <row r="13">
@@ -3344,19 +3344,19 @@
         <v>275448</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>248428</v>
+        <v>245968</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>305376</v>
+        <v>304224</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2983620709936441</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2690939860599258</v>
+        <v>0.2664299664891135</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3307794625976695</v>
+        <v>0.3295319980033795</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>179</v>
@@ -3365,19 +3365,19 @@
         <v>178428</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>157090</v>
+        <v>158142</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>200259</v>
+        <v>201636</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2742750838475</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2414755860618695</v>
+        <v>0.2430925755290774</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3078338993792055</v>
+        <v>0.3099500267681472</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>443</v>
@@ -3386,19 +3386,19 @@
         <v>453876</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>419385</v>
+        <v>416843</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>491958</v>
+        <v>491599</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2884051627076571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2664882836878749</v>
+        <v>0.2648730679908473</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3126036535549652</v>
+        <v>0.3123754865899431</v>
       </c>
     </row>
     <row r="14">
@@ -3415,19 +3415,19 @@
         <v>341194</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>313769</v>
+        <v>312630</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370791</v>
+        <v>370668</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3695772340371223</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3398709863429565</v>
+        <v>0.3386366993525355</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4016363077654726</v>
+        <v>0.4015029270412633</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>217</v>
@@ -3436,19 +3436,19 @@
         <v>222878</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>199983</v>
+        <v>198903</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>247809</v>
+        <v>248747</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3426035729005839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3074091348831991</v>
+        <v>0.3057485861065453</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.38092678128121</v>
+        <v>0.3823683486213566</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>537</v>
@@ -3457,19 +3457,19 @@
         <v>564073</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>526744</v>
+        <v>528407</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>606603</v>
+        <v>603285</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3584270528856038</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3347074701672502</v>
+        <v>0.3357640207510469</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3854521269236227</v>
+        <v>0.3833433794713325</v>
       </c>
     </row>
     <row r="15">
@@ -3561,19 +3561,19 @@
         <v>5489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1960</v>
+        <v>1974</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12619</v>
+        <v>12343</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01575420440613006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005625996088549172</v>
+        <v>0.005666282942379705</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03621630374192969</v>
+        <v>0.03542342695995439</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3582,19 +3582,19 @@
         <v>9284</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4429</v>
+        <v>4168</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18529</v>
+        <v>18021</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03009915898176141</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01435887467274564</v>
+        <v>0.01351130554773922</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06007093024276176</v>
+        <v>0.0584253418334608</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -3603,19 +3603,19 @@
         <v>14774</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8040</v>
+        <v>8424</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24116</v>
+        <v>25530</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02249009405481219</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01223889872676479</v>
+        <v>0.01282441227875982</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03671303785236131</v>
+        <v>0.03886470633663505</v>
       </c>
     </row>
     <row r="17">
@@ -3632,19 +3632,19 @@
         <v>11290</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5827</v>
+        <v>5675</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20238</v>
+        <v>20126</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03240217902371637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01672306736866004</v>
+        <v>0.01628836980184643</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05808323551389985</v>
+        <v>0.0577608865325446</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -3653,19 +3653,19 @@
         <v>12315</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6694</v>
+        <v>6724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20179</v>
+        <v>21142</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0399251736602338</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0217024389720154</v>
+        <v>0.02179849720024683</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06542049704809239</v>
+        <v>0.06854186434543336</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -3674,19 +3674,19 @@
         <v>23605</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14995</v>
+        <v>15237</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35737</v>
+        <v>34711</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03593471455263969</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02282689623596738</v>
+        <v>0.02319629550954704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05440284988960106</v>
+        <v>0.05284103108650871</v>
       </c>
     </row>
     <row r="18">
@@ -3703,19 +3703,19 @@
         <v>62223</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47729</v>
+        <v>48157</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80730</v>
+        <v>78827</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1785770176462607</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1369790466243834</v>
+        <v>0.1382076896587723</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2316916113824236</v>
+        <v>0.2262304243974058</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>54</v>
@@ -3724,19 +3724,19 @@
         <v>55049</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>42754</v>
+        <v>43927</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>68608</v>
+        <v>70227</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1784684775479505</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1386075389095926</v>
+        <v>0.1424110634223383</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2224257697377924</v>
+        <v>0.2276744337018566</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>106</v>
@@ -3745,19 +3745,19 @@
         <v>117272</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>98832</v>
+        <v>99583</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>139141</v>
+        <v>139171</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1785260510070274</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1504543158234808</v>
+        <v>0.1515969278687641</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2118167887325265</v>
+        <v>0.2118636405298749</v>
       </c>
     </row>
     <row r="19">
@@ -3774,19 +3774,19 @@
         <v>83355</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67377</v>
+        <v>66542</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>101205</v>
+        <v>100782</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2392233770052239</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1933700111919583</v>
+        <v>0.1909722234665025</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2904543209565394</v>
+        <v>0.289239430541379</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -3795,19 +3795,19 @@
         <v>68449</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54286</v>
+        <v>53807</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84011</v>
+        <v>82772</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2219093470510405</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1759953383458003</v>
+        <v>0.1744406569984729</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2723626352179949</v>
+        <v>0.2683450324094321</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>145</v>
@@ -3816,19 +3816,19 @@
         <v>151803</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130878</v>
+        <v>131475</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>176005</v>
+        <v>174761</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2310933132583874</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1992381510416922</v>
+        <v>0.2001479355866257</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2679359749592986</v>
+        <v>0.2660419826790315</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>186081</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166574</v>
+        <v>166143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>203552</v>
+        <v>206755</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5340432219186689</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.478060482786217</v>
+        <v>0.4768210691980289</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5841846929249781</v>
+        <v>0.5933760957042031</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>158</v>
@@ -3866,19 +3866,19 @@
         <v>163356</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>142923</v>
+        <v>145578</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>179449</v>
+        <v>179723</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5295978427590138</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4633539573459501</v>
+        <v>0.4719625569219159</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5817697950021583</v>
+        <v>0.5826596590330225</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>332</v>
@@ -3887,19 +3887,19 @@
         <v>349437</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>322363</v>
+        <v>322552</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>374000</v>
+        <v>374187</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5319558271271333</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4907403838980627</v>
+        <v>0.4910287218679634</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5693485618913883</v>
+        <v>0.5696326903284162</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>49355</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36002</v>
+        <v>35944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65034</v>
+        <v>65635</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0349309159072641</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02547998023258053</v>
+        <v>0.02543899532578351</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04602761286680704</v>
+        <v>0.04645264140871112</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -4012,19 +4012,19 @@
         <v>46838</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34022</v>
+        <v>34924</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62272</v>
+        <v>63020</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04555646504916389</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03309117056947702</v>
+        <v>0.03396842698655156</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06056875424065005</v>
+        <v>0.06129611595251769</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>86</v>
@@ -4033,19 +4033,19 @@
         <v>96193</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>76672</v>
+        <v>76692</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>117242</v>
+        <v>118726</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03940617595642832</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0314090797059947</v>
+        <v>0.031417538203217</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0480289951120324</v>
+        <v>0.04863683569623647</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>82695</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>65322</v>
+        <v>66750</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>101432</v>
+        <v>102374</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05852666043017438</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04623120286392039</v>
+        <v>0.04724201378945987</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07178812492154653</v>
+        <v>0.07245489203216579</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>64</v>
@@ -4083,19 +4083,19 @@
         <v>66098</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50411</v>
+        <v>52113</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>83257</v>
+        <v>84206</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06428945713544915</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04903151327186765</v>
+        <v>0.05068699603655716</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08097906921625452</v>
+        <v>0.08190270726451268</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>139</v>
@@ -4104,19 +4104,19 @@
         <v>148792</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>124017</v>
+        <v>122986</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>173567</v>
+        <v>172259</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06095383040719453</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05080457125562338</v>
+        <v>0.05038217162982497</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07110315946739974</v>
+        <v>0.07056710716054529</v>
       </c>
     </row>
     <row r="24">
@@ -4133,19 +4133,19 @@
         <v>314862</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>282974</v>
+        <v>284287</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>346390</v>
+        <v>349741</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2228420649053459</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2002731679275323</v>
+        <v>0.2012030486221157</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2451558114008825</v>
+        <v>0.2475276968107103</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>236</v>
@@ -4154,19 +4154,19 @@
         <v>242710</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>217469</v>
+        <v>214946</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>272127</v>
+        <v>270322</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2360705800511919</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2115202202819005</v>
+        <v>0.2090659622137221</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2646832264015975</v>
+        <v>0.2629267717894221</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>522</v>
@@ -4175,19 +4175,19 @@
         <v>557572</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>517221</v>
+        <v>516753</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>600167</v>
+        <v>600491</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2284136400353804</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2118835484790184</v>
+        <v>0.2116919887663649</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2458628387944478</v>
+        <v>0.2459955125943196</v>
       </c>
     </row>
     <row r="25">
@@ -4204,19 +4204,19 @@
         <v>392432</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>361344</v>
+        <v>357050</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>426997</v>
+        <v>427597</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2777419701165565</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2557395847076577</v>
+        <v>0.2527002445458278</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3022052545182439</v>
+        <v>0.3026298702992133</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>268</v>
@@ -4225,19 +4225,19 @@
         <v>268908</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>241287</v>
+        <v>241874</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>297157</v>
+        <v>295699</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2615515523687614</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2346862052106321</v>
+        <v>0.2352571752210842</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2890276364419344</v>
+        <v>0.2876094966687299</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>643</v>
@@ -4246,19 +4246,19 @@
         <v>661340</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>613315</v>
+        <v>616776</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>707181</v>
+        <v>705004</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2709229032844933</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2512489836381982</v>
+        <v>0.2526669084828709</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2897020468531627</v>
+        <v>0.2888103436402423</v>
       </c>
     </row>
     <row r="26">
@@ -4275,19 +4275,19 @@
         <v>573594</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>540693</v>
+        <v>534598</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>611210</v>
+        <v>614051</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.405958388640659</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3826729884982604</v>
+        <v>0.3783591671340044</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4325807159501202</v>
+        <v>0.4345917350379684</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>392</v>
@@ -4296,19 +4296,19 @@
         <v>403572</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>373253</v>
+        <v>367729</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>437458</v>
+        <v>435487</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3925319453954336</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.363042073685311</v>
+        <v>0.3576693220983375</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.425491431183962</v>
+        <v>0.4235736913573684</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>928</v>
@@ -4317,19 +4317,19 @@
         <v>977166</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>932707</v>
+        <v>930537</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1034302</v>
+        <v>1029972</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4003034503165034</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3820906262479257</v>
+        <v>0.3812016247626016</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4237096811305396</v>
+        <v>0.4219359557949909</v>
       </c>
     </row>
     <row r="27">
